--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-27T18:16:54-05:00</t>
+    <t>2022-03-28T04:09:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T04:09:55-05:00</t>
+    <t>2022-03-28T08:57:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T08:57:45-05:00</t>
+    <t>2022-03-28T09:36:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T09:36:56-05:00</t>
+    <t>2022-03-28T09:52:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T09:52:25-05:00</t>
+    <t>2022-03-31T09:31:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T09:31:19-05:00</t>
+    <t>2022-03-31T10:13:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
+++ b/temp/pages/StructureDefinition-PhrAllergyIntolerance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T10:13:20-05:00</t>
+    <t>2022-03-31T10:22:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
